--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48592.88472889765</v>
+        <v>9669984.061050624</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48592.88472889765</v>
+        <v>9669984.061050624</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96428.41438440925</v>
+        <v>10008282.35106514</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96428.41438440925</v>
+        <v>10008282.35106514</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609528263.98556</v>
+        <v>57590058.56566343</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15849.50775766761</v>
+        <v>1380742.40062015</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30442.35654786472</v>
+        <v>2558649.098290613</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44954.8986921664</v>
+        <v>3736555.795961076</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59715.94962031868</v>
+        <v>4868754.634859879</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74004.94178012482</v>
+        <v>6045459.196273729</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88293.93393993098</v>
+        <v>7222163.757687581</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102014.784495825</v>
+        <v>8526707.211099805</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>115640.1295971737</v>
+        <v>9812245.079057485</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131292.6412761044</v>
+        <v>10648515.28663085</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146244.4992456388</v>
+        <v>11647611.57783087</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>161196.3572151732</v>
+        <v>12646707.86903089</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>176148.2151847077</v>
+        <v>13645804.16023092</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>191100.073154242</v>
+        <v>14644900.45143095</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>208582.4761495363</v>
+        <v>15349388.09701672</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>227559.2960730729</v>
+        <v>15784762.21346794</v>
       </c>
     </row>
   </sheetData>
